--- a/Preloaded options.xlsx
+++ b/Preloaded options.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Work/Reason/Reason Work/R projects/Plan Models/North Dakota PERS/NDPERS-Funding Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A909B-B3CF-0C47-9857-134C95B79202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34F0B6-4979-B243-8F26-C7A93D5BE310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{33FD8218-5933-F54A-ADE9-6C049057BAAD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Input</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>DC Default</t>
-  </si>
-  <si>
     <t>Hybrid</t>
   </si>
   <si>
@@ -159,6 +156,30 @@
   </si>
   <si>
     <t>DCreturn</t>
+  </si>
+  <si>
+    <t>ModelReturn</t>
+  </si>
+  <si>
+    <t>AnnualCashInfusion</t>
+  </si>
+  <si>
+    <t>EEAdditionalRate</t>
+  </si>
+  <si>
+    <t>ERAdditionalRate</t>
+  </si>
+  <si>
+    <t>Modified Funding</t>
+  </si>
+  <si>
+    <t>Modified Funding &amp; DC</t>
+  </si>
+  <si>
+    <t>Infusion &amp; DC &amp; ADEC</t>
+  </si>
+  <si>
+    <t>ADC</t>
   </si>
 </sst>
 </file>
@@ -533,20 +554,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63F4791-2EB0-CD45-B30C-5E163EADBF56}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,29 +578,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>1.7500000000000002E-2</v>
@@ -585,230 +621,412 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="D3" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.75</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.06</v>
+      </c>
+      <c r="E5">
+        <v>0.06</v>
+      </c>
+      <c r="F5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="C5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <v>0.01</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
@@ -822,7 +1040,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,46 +1050,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>7.0000000000000007E-2</v>
@@ -885,7 +1103,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -899,13 +1117,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.8000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D6">
         <v>3.3000000000000002E-2</v>
@@ -913,7 +1131,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1.7500000000000002E-2</v>
@@ -927,7 +1145,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -941,7 +1159,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -955,16 +1173,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D10">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
